--- a/doctor_payments/Book1.xlsx
+++ b/doctor_payments/Book1.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny\Desktop\dataentry_automation_flask_project\doctor_payments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\dataentry_flask_automation_project\doctor_payments\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAF0A4-0CE2-4245-B36D-A1042DC6730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="15930" windowHeight="8280"/>
+    <workbookView xWindow="30030" yWindow="-120" windowWidth="27690" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>Surface Centre médical en M2</t>
   </si>
@@ -114,19 +127,130 @@
   </si>
   <si>
     <t>Simplify</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>Personnel 80% 13 salaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charges sociales 18% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix du loyer surface m2 </t>
+  </si>
+  <si>
+    <t>Loyer surface commune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nettoyage Dossim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplify </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leasing matériel informatique </t>
+  </si>
+  <si>
+    <t>Frais administratif, facturation CDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téléphonie-internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axenita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanchisserie du léman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assurances </t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>surfacecentremedical = FloatField(label="Surface Centre medical en M2")</t>
+  </si>
+  <si>
+    <t>    surfacecommunes=FloatField(label="Surface Communes en M2")</t>
+  </si>
+  <si>
+    <t>    loyermensuel=FloatField(label="Loyer Mensuel")</t>
+  </si>
+  <si>
+    <t>    surfaceaccordee=FloatField(label="Surface Accordee")</t>
+  </si>
+  <si>
+    <t>    nettoyage=FloatField(label="Nettoyage Bureau/an")</t>
+  </si>
+  <si>
+    <t>    conciergerie=FloatField(label="Conciergerie")</t>
+  </si>
+  <si>
+    <t>    salairepersonnel=FloatField(label="Salaire Personnel a 100%/mois")</t>
+  </si>
+  <si>
+    <t>    telephonieinternet=FloatField(label="Telephonie-Internet")</t>
+  </si>
+  <si>
+    <t>    logicielaxenita=FloatField(label="Logiciel Axenita")</t>
+  </si>
+  <si>
+    <t>    nbmedicins=FloatField(label="Nb de medecins pour axenita")</t>
+  </si>
+  <si>
+    <t>    assurances =FloatField(label="Assurances/annuel")</t>
+  </si>
+  <si>
+    <t>    blanchisserieleman=FloatField(label="Blanchisserie du leman/annuel")</t>
+  </si>
+  <si>
+    <t>    informatique=FloatField(label="Informatique/annuel")</t>
+  </si>
+  <si>
+    <t>    nblocaux=FloatField(label="Nb de Locaux")</t>
+  </si>
+  <si>
+    <t>    nbmedicinsrepartirfrais=FloatField(label="Nb de medecins pour repartir frais")</t>
+  </si>
+  <si>
+    <t>    receptionniste=FloatField(label="Receptionniste annuel")</t>
+  </si>
+  <si>
+    <t>    Apprentie=FloatField(label="Apprentie de 2eme annee")</t>
+  </si>
+  <si>
+    <t>    simplify=FloatField(label="Simplify")</t>
+  </si>
+  <si>
+    <t>    steriswiss=FloatField(label="Steriswiss")</t>
+  </si>
+  <si>
+    <t>    submit =SubmitField("Submit")</t>
+  </si>
+  <si>
+    <t>(get percentage)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +283,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,7 +331,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -217,13 +364,43 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Euro" xfId="3"/>
+    <cellStyle name="Euro" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,169 +677,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55866F6F-C6DC-4CE8-B159-2CB56E6DD271}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doctor_payments/Book1.xlsx
+++ b/doctor_payments/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\dataentry_flask_automation_project\doctor_payments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAF0A4-0CE2-4245-B36D-A1042DC6730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4890A09-6630-4D25-93A5-FF8803D91834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30030" yWindow="-120" windowWidth="27690" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>Surface Centre médical en M2</t>
   </si>
@@ -238,6 +238,45 @@
   </si>
   <si>
     <t>(get percentage)</t>
+  </si>
+  <si>
+    <t>Apprentie et/ou personnel secrétariat</t>
+  </si>
+  <si>
+    <t>Réceptionniste 20%  13 salaires</t>
+  </si>
+  <si>
+    <t>Réceptionniste 40%  13 salaires</t>
+  </si>
+  <si>
+    <t>Steriswiss</t>
+  </si>
+  <si>
+    <t>Azote liquide abonnement</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>k27/3</t>
+  </si>
+  <si>
+    <t>/12</t>
+  </si>
+  <si>
+    <t>sw/2</t>
+  </si>
+  <si>
+    <t>entered</t>
+  </si>
+  <si>
+    <t>*12</t>
+  </si>
+  <si>
+    <t>cell reference not clear</t>
   </si>
 </sst>
 </file>
@@ -289,7 +328,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +353,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -331,7 +382,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -392,6 +443,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55866F6F-C6DC-4CE8-B159-2CB56E6DD271}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,9 +1062,11 @@
     <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
@@ -1008,88 +1076,148 @@
       <c r="C1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="22"/>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>57</v>
       </c>
@@ -1097,7 +1225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>58</v>
       </c>
@@ -1105,7 +1233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>59</v>
       </c>
@@ -1113,12 +1241,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>61</v>
       </c>
